--- a/data/target_activity_factor.xlsx
+++ b/data/target_activity_factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ftuser/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akim/Documents/epi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD78D44-82C8-EE4A-ABD0-D26FBBD49998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5403BB-3689-604D-B69E-1E5EFB52928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="2980" windowWidth="28040" windowHeight="15800" xr2:uid="{6B9E2E13-24D7-5948-B48E-34C9120828C2}"/>
+    <workbookView xWindow="12640" yWindow="1760" windowWidth="28040" windowHeight="15800" xr2:uid="{6B9E2E13-24D7-5948-B48E-34C9120828C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635B2F55-FC59-D540-98AD-D8AEEAB3497C}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A2:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,34 +685,23 @@
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -720,10 +709,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -731,10 +720,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -742,21 +731,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -764,10 +753,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -775,7 +764,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -786,10 +775,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -797,10 +786,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -808,7 +797,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -819,10 +808,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
@@ -830,7 +819,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -841,10 +830,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -852,7 +841,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -863,29 +852,29 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -896,7 +885,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -907,7 +896,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -918,7 +907,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -929,29 +918,29 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -962,7 +951,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
@@ -973,7 +962,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
@@ -984,10 +973,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -995,10 +984,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -1006,7 +995,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>68</v>
@@ -1017,10 +1006,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>75</v>
@@ -1028,7 +1017,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
@@ -1039,10 +1028,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -1050,7 +1039,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>68</v>
@@ -1061,7 +1050,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
@@ -1072,9 +1061,9 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>68</v>
       </c>
       <c r="C36" t="s">
@@ -1083,10 +1072,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>75</v>
@@ -1094,7 +1083,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>69</v>
@@ -1105,10 +1094,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>75</v>
@@ -1116,7 +1105,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
@@ -1127,7 +1116,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>68</v>
@@ -1138,54 +1127,54 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
         <v>72</v>
@@ -1193,29 +1182,29 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
@@ -1226,7 +1215,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
@@ -1237,21 +1226,21 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -1259,7 +1248,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>69</v>
@@ -1270,21 +1259,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
         <v>72</v>
@@ -1292,10 +1281,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
         <v>72</v>
@@ -1303,51 +1292,51 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -1358,7 +1347,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>68</v>
@@ -1369,7 +1358,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
@@ -1380,7 +1369,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
@@ -1391,7 +1380,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
@@ -1402,10 +1391,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
         <v>72</v>
@@ -1413,23 +1402,34 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
         <v>79</v>
       </c>
     </row>
